--- a/biology/Zoologie/Capsalidae/Capsalidae.xlsx
+++ b/biology/Zoologie/Capsalidae/Capsalidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Capsalidae[1],[2] sont une famille de monogènes Monopisthocotylea, qui comprend environ 200 espèces[3].
-La monophylie des Capsalidae est soutenue par le caractère morphologique de possession de sclérites accessoires[3] dans le hapteur (l'organe postérieur d'attachement des monogènes), et a été confirmée par phylogénie moléculaire[4].
-Les Capsalidae sont parasites de plusieurs organes des poissons osseux et des élasmobranches, tels que la peau, les nageoires ou les branchies[3]. Quelques espèces, telles que Neobenedenia spp.[5] sont pathogènes chez les poissons, surtout en conditions d'aquaculture.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Capsalidae, sont une famille de monogènes Monopisthocotylea, qui comprend environ 200 espèces.
+La monophylie des Capsalidae est soutenue par le caractère morphologique de possession de sclérites accessoires dans le hapteur (l'organe postérieur d'attachement des monogènes), et a été confirmée par phylogénie moléculaire.
+Les Capsalidae sont parasites de plusieurs organes des poissons osseux et des élasmobranches, tels que la peau, les nageoires ou les branchies. Quelques espèces, telles que Neobenedenia spp. sont pathogènes chez les poissons, surtout en conditions d'aquaculture.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La liste des genres telles que reconnue par World Register of Marine Species                               (26 janvier 2021)[6] est indiquée ci-dessous. Les analyses moléculaires récentes ont montré toutefois que certains genres qui ont été définis sur des caractères morphologiques ne sont pas monophylétiques[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La liste des genres telles que reconnue par World Register of Marine Species                               (26 janvier 2021) est indiquée ci-dessous. Les analyses moléculaires récentes ont montré toutefois que certains genres qui ont été définis sur des caractères morphologiques ne sont pas monophylétiques.
 Les genres Menziesia et Nitzschia ont leur équivalent dans la nomenclature botanique : Menziesia (plante à fleurs) et Nitzschia (diatomée).
 Allobenedenia Yamaguti, 1963
 Alloencotyllabe Khalil &amp; Abdul-Salam, 1988
@@ -559,7 +573,7 @@
 Tetrasepta Suriano, 1975
 Trilobiodiscus Bychowsky &amp; Nagibina, 1967
 Trimusculotrema Whittington &amp; Barton, 1990
-Tristoma Cuvier, 1817 [7]
+Tristoma Cuvier, 1817 
 Tristomella Guiart, 1938
 Trochopella Euzet &amp; Trilles, 1962
 Trochopus Diesing, 1850</t>
